--- a/Table_for_script.xlsx
+++ b/Table_for_script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonie\Desktop\MyMetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7BF3A7-6ED0-47C1-ACBE-B7A17BB6A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4D8626-2FCD-4A9E-A416-2902E16B1021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98C8DAD1-23B1-42D2-9562-11B468AC6137}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="11150" windowHeight="9850" xr2:uid="{98C8DAD1-23B1-42D2-9562-11B468AC6137}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="109">
   <si>
     <t>Study</t>
   </si>
@@ -330,6 +330,39 @@
   </si>
   <si>
     <t>Vulnerability for ethnic discrimination</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>&lt;0.02</t>
+  </si>
+  <si>
+    <t>Castillejos et al.</t>
+  </si>
+  <si>
+    <t>Kirkbride et al.</t>
+  </si>
+  <si>
+    <t>Urbanicity</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>Brandt et al., 2019</t>
+  </si>
+  <si>
+    <t>Selten et al., 2020</t>
+  </si>
+  <si>
+    <t>&lt;0,0001</t>
+  </si>
+  <si>
+    <t>Refugee</t>
   </si>
 </sst>
 </file>
@@ -385,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +455,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -435,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -458,9 +509,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -501,6 +549,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -818,15 +872,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE108"/>
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="30" customWidth="1"/>
     <col min="2" max="2" width="6.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
@@ -844,17 +898,17 @@
     <col min="22" max="22" width="6.1796875" style="11" customWidth="1"/>
     <col min="23" max="24" width="7.1796875" style="11" customWidth="1"/>
     <col min="25" max="25" width="5.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="24" customWidth="1"/>
+    <col min="26" max="26" width="7" style="23" customWidth="1"/>
     <col min="27" max="27" width="8.36328125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.81640625" style="24"/>
+    <col min="28" max="28" width="10.81640625" style="23"/>
     <col min="29" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -878,13 +932,13 @@
       <c r="I1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -902,13 +956,13 @@
       <c r="Q1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>65</v>
       </c>
       <c r="U1" s="7" t="s">
@@ -917,22 +971,22 @@
       <c r="V1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -943,25 +997,25 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1009,18 +1063,18 @@
         <f t="shared" si="0"/>
         <v>0.47573616585537459</v>
       </c>
-      <c r="Z2" s="26">
+      <c r="Z2" s="25">
         <v>94.7</v>
       </c>
       <c r="AA2" s="8"/>
-      <c r="AB2" s="26"/>
+      <c r="AB2" s="25"/>
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:31" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1029,13 +1083,13 @@
       <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1075,19 +1129,19 @@
         <f t="shared" si="0"/>
         <v>0.38763797435228214</v>
       </c>
-      <c r="Z3" s="26">
+      <c r="Z3" s="25">
         <v>97.6</v>
       </c>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="26"/>
+      <c r="AB3" s="25"/>
       <c r="AC3" s="9"/>
-      <c r="AE3" s="31"/>
+      <c r="AE3" s="30"/>
     </row>
     <row r="4" spans="1:31" ht="91.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1096,13 +1150,13 @@
       <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>89</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1148,30 +1202,30 @@
         <f t="shared" si="0"/>
         <v>0.67470275697983217</v>
       </c>
-      <c r="Z4" s="26"/>
+      <c r="Z4" s="25"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="26">
+      <c r="AB4" s="25">
         <v>68.3</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="31"/>
+      <c r="AE4" s="30"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
@@ -1221,28 +1275,28 @@
         <f t="shared" si="1"/>
         <v>0.57158300163886233</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="Z5" s="25">
         <v>97.9</v>
       </c>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="26"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="9"/>
-      <c r="AE5" s="31"/>
+      <c r="AE5" s="30"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
@@ -1285,19 +1339,19 @@
         <f t="shared" si="1"/>
         <v>0.40111857002730944</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="Z6" s="25">
         <v>97.6</v>
       </c>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="26"/>
+      <c r="AB6" s="25"/>
       <c r="AC6" s="9"/>
-      <c r="AE6" s="31"/>
+      <c r="AE6" s="30"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1306,7 +1360,7 @@
       <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
@@ -1355,30 +1409,30 @@
         <f t="shared" si="1"/>
         <v>0.64127865119745797</v>
       </c>
-      <c r="Z7" s="26"/>
+      <c r="Z7" s="25"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="26">
+      <c r="AB7" s="25">
         <v>55.4</v>
       </c>
       <c r="AC7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="31"/>
+      <c r="AE7" s="30"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
@@ -1427,32 +1481,32 @@
         <f t="shared" si="1"/>
         <v>0.54760840290514778</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="Z8" s="25">
         <v>94.4</v>
       </c>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="26">
+      <c r="AB8" s="25">
         <v>1071</v>
       </c>
       <c r="AC8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="31"/>
+      <c r="AE8" s="30"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F9" t="s">
@@ -1497,28 +1551,28 @@
         <f t="shared" si="2"/>
         <v>0.35387259409572541</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="Z9" s="25">
         <v>94.2</v>
       </c>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="26"/>
+      <c r="AB9" s="25"/>
       <c r="AC9" s="9"/>
-      <c r="AE9" s="31"/>
+      <c r="AE9" s="30"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F10" t="s">
@@ -1561,19 +1615,19 @@
         <f t="shared" si="2"/>
         <v>0.37938851028685755</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="25">
         <v>90.5</v>
       </c>
       <c r="AA10" s="9"/>
-      <c r="AB10" s="26"/>
+      <c r="AB10" s="25"/>
       <c r="AC10" s="9"/>
-      <c r="AE10" s="31"/>
+      <c r="AE10" s="30"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -1582,7 +1636,7 @@
       <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F11" t="s">
@@ -1631,32 +1685,32 @@
         <f t="shared" si="2"/>
         <v>1.418355459269216</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="Z11" s="25">
         <v>4.5</v>
       </c>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="26">
+      <c r="AB11" s="25">
         <v>55.4</v>
       </c>
       <c r="AC11" s="9">
         <v>0.62</v>
       </c>
-      <c r="AE11" s="31"/>
+      <c r="AE11" s="30"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>86</v>
       </c>
       <c r="F12" t="s">
@@ -1705,32 +1759,32 @@
         <f t="shared" si="2"/>
         <v>0.50517755710384227</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="25">
         <v>91.1</v>
       </c>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="26">
+      <c r="AB12" s="25">
         <v>303</v>
       </c>
       <c r="AC12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" s="31"/>
+      <c r="AE12" s="30"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>16</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F13" t="s">
@@ -1773,28 +1827,28 @@
         <f t="shared" si="3"/>
         <v>0.33916961888866182</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="Z13" s="25">
         <v>97.1</v>
       </c>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="26"/>
+      <c r="AB13" s="25"/>
       <c r="AC13" s="8"/>
-      <c r="AE13" s="31"/>
+      <c r="AE13" s="30"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>16</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F14" t="s">
@@ -1843,26 +1897,26 @@
         <f t="shared" si="3"/>
         <v>0.60569669962550787</v>
       </c>
-      <c r="Z14" s="26"/>
+      <c r="Z14" s="25"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="26"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" s="8"/>
-      <c r="AE14" s="31"/>
+      <c r="AE14" s="30"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>16</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F15" t="s">
@@ -1911,32 +1965,32 @@
         <f t="shared" si="3"/>
         <v>0.40905149675351649</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="25">
         <v>89.7</v>
       </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="26">
+      <c r="AB15" s="25">
         <v>175.4</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE15" s="31"/>
+      <c r="AE15" s="30"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>16</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>85</v>
       </c>
       <c r="F16" t="s">
@@ -1985,38 +2039,38 @@
         <f t="shared" si="3"/>
         <v>0.60569669962550787</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="Z16" s="25">
         <v>87.2</v>
       </c>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="26">
+      <c r="AB16" s="25">
         <v>23.5</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="31"/>
+      <c r="AE16" s="30"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>17</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2058,34 +2112,34 @@
         <f t="shared" si="4"/>
         <v>0.90255466607522172</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="Z17" s="25">
         <v>94.3</v>
       </c>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="26"/>
+      <c r="AB17" s="25"/>
       <c r="AC17" s="8"/>
-      <c r="AE17" s="31"/>
+      <c r="AE17" s="30"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2131,32 +2185,32 @@
         <f t="shared" si="4"/>
         <v>1.0059267458578671</v>
       </c>
-      <c r="Z18" s="26"/>
+      <c r="Z18" s="25"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="26"/>
+      <c r="AB18" s="25"/>
       <c r="AC18" s="8"/>
-      <c r="AE18" s="31"/>
+      <c r="AE18" s="30"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>17</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -2204,36 +2258,36 @@
         <f t="shared" si="4"/>
         <v>0.71532892393428815</v>
       </c>
-      <c r="Z19" s="26">
+      <c r="Z19" s="25">
         <v>98.3</v>
       </c>
       <c r="AA19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB19" s="26"/>
+      <c r="AB19" s="25"/>
       <c r="AC19" s="8"/>
-      <c r="AE19" s="31"/>
+      <c r="AE19" s="30"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>17</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2279,32 +2333,32 @@
         <f t="shared" si="4"/>
         <v>0.84135893618143631</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="25">
         <v>79</v>
       </c>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="26">
+      <c r="AB20" s="25">
         <v>80.8</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE20" s="31"/>
+      <c r="AE20" s="30"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>17</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>84</v>
       </c>
       <c r="F21" t="s">
@@ -2353,32 +2407,32 @@
         <f t="shared" si="4"/>
         <v>1.1990034644567731</v>
       </c>
-      <c r="Z21" s="26">
+      <c r="Z21" s="25">
         <v>78.900000000000006</v>
       </c>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="26">
+      <c r="AB21" s="25">
         <v>28.4</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE21" s="31"/>
+      <c r="AE21" s="30"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>18</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F22" t="s">
@@ -2423,28 +2477,28 @@
         <f t="shared" si="5"/>
         <v>0.41945423736363258</v>
       </c>
-      <c r="Z22" s="26">
+      <c r="Z22" s="25">
         <v>95.1</v>
       </c>
       <c r="AA22" s="8"/>
-      <c r="AB22" s="26"/>
+      <c r="AB22" s="25"/>
       <c r="AC22" s="8"/>
-      <c r="AE22" s="31"/>
+      <c r="AE22" s="30"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>18</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
@@ -2493,26 +2547,26 @@
         <f t="shared" si="5"/>
         <v>0.60569669962550787</v>
       </c>
-      <c r="Z23" s="26"/>
+      <c r="Z23" s="25"/>
       <c r="AA23" s="8"/>
-      <c r="AB23" s="26"/>
+      <c r="AB23" s="25"/>
       <c r="AC23" s="8"/>
-      <c r="AE23" s="31"/>
+      <c r="AE23" s="30"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>18</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F24" t="s">
@@ -2561,32 +2615,32 @@
         <f t="shared" si="5"/>
         <v>0.50517755710384227</v>
       </c>
-      <c r="Z24" s="26">
+      <c r="Z24" s="25">
         <v>84.7</v>
       </c>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="26">
+      <c r="AB24" s="25">
         <v>97.8</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE24" s="31"/>
+      <c r="AE24" s="30"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>18</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>83</v>
       </c>
       <c r="F25" t="s">
@@ -2635,36 +2689,36 @@
         <f t="shared" si="5"/>
         <v>0.76430413886753357</v>
       </c>
-      <c r="Z25" s="26">
+      <c r="Z25" s="25">
         <v>73.8</v>
       </c>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="26">
+      <c r="AB25" s="25">
         <v>15.3</v>
       </c>
       <c r="AC25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE25" s="31"/>
+      <c r="AE25" s="30"/>
     </row>
     <row r="26" spans="1:31" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>19</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2713,29 +2767,29 @@
         <f t="shared" si="6"/>
         <v>0.74751109764908596</v>
       </c>
-      <c r="Z26" s="26"/>
+      <c r="Z26" s="25"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="26"/>
+      <c r="AB26" s="25"/>
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:31" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>19</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2782,24 +2836,24 @@
         <f t="shared" ref="Y27" si="8">LN(T27)*SQRT(3)/3.1415926535</f>
         <v>1.0147481963790244</v>
       </c>
-      <c r="Z27" s="26"/>
+      <c r="Z27" s="25"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="26"/>
+      <c r="AB27" s="25"/>
       <c r="AC27" s="8"/>
-      <c r="AE27" s="31"/>
+      <c r="AE27" s="30"/>
     </row>
     <row r="28" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>20</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -2844,30 +2898,30 @@
         <f t="shared" ref="Y28" si="10">(2*T28)/SQRT((1-T28*T28))</f>
         <v>0.89903850016928244</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="25">
         <v>68.09</v>
       </c>
       <c r="AA28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="25">
         <v>37.6</v>
       </c>
       <c r="AC28" s="8"/>
-      <c r="AE28" s="31"/>
+      <c r="AE28" s="30"/>
     </row>
     <row r="29" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>20</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="31" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -2918,30 +2972,30 @@
         <f t="shared" si="11"/>
         <v>0.58127268682045907</v>
       </c>
-      <c r="Z29" s="26">
+      <c r="Z29" s="25">
         <v>44.9</v>
       </c>
       <c r="AA29" s="8"/>
-      <c r="AB29" s="26">
+      <c r="AB29" s="25">
         <v>34.5</v>
       </c>
       <c r="AC29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AE29" s="31"/>
+      <c r="AE29" s="30"/>
     </row>
     <row r="30" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>21</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -2986,30 +3040,30 @@
         <f t="shared" ref="Y30" si="14">(2*T30)/SQRT((1-T30*T30))</f>
         <v>0.87287156094396956</v>
       </c>
-      <c r="Z30" s="26">
+      <c r="Z30" s="25">
         <v>37.450000000000003</v>
       </c>
       <c r="AA30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB30" s="26">
+      <c r="AB30" s="25">
         <v>19.18</v>
       </c>
       <c r="AC30" s="8"/>
-      <c r="AE30" s="31"/>
+      <c r="AE30" s="30"/>
     </row>
     <row r="31" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>21</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3060,30 +3114,30 @@
         <f>LN(T31)*SQRT(3)/3.1415926535</f>
         <v>0.74751109764908596</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="Z31" s="25">
         <v>74.900000000000006</v>
       </c>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="26">
+      <c r="AB31" s="25">
         <v>47.8</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="31"/>
+      <c r="AE31" s="30"/>
     </row>
     <row r="32" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>22</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3128,30 +3182,30 @@
         <f t="shared" ref="Y32" si="18">(2*T32)/SQRT((1-T32*T32))</f>
         <v>1.2831708326087454</v>
       </c>
-      <c r="Z32" s="26">
+      <c r="Z32" s="25">
         <v>76.650000000000006</v>
       </c>
       <c r="AA32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AB32" s="25">
         <v>47.11</v>
       </c>
       <c r="AC32" s="8"/>
-      <c r="AE32" s="31"/>
+      <c r="AE32" s="30"/>
     </row>
     <row r="33" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>22</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -3202,30 +3256,30 @@
         <f t="shared" si="19"/>
         <v>0.9517765294199424</v>
       </c>
-      <c r="Z33" s="26">
+      <c r="Z33" s="25">
         <v>78.3</v>
       </c>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="26">
+      <c r="AB33" s="25">
         <v>23.1</v>
       </c>
       <c r="AC33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE33" s="31"/>
+      <c r="AE33" s="30"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>23</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3270,30 +3324,30 @@
         <f t="shared" ref="Y34" si="22">(2*T34)/SQRT((1-T34*T34))</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="Z34" s="25">
         <v>36.53</v>
       </c>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="26">
+      <c r="AB34" s="25">
         <v>34.659999999999997</v>
       </c>
       <c r="AC34" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE34" s="31"/>
+      <c r="AE34" s="30"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>23</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -3344,30 +3398,30 @@
         <f t="shared" ref="Y35" si="24">LN(T35)*SQRT(3)/3.1415926535</f>
         <v>0.87843703221411606</v>
       </c>
-      <c r="Z35" s="26">
+      <c r="Z35" s="25">
         <v>81.8</v>
       </c>
       <c r="AA35" s="8"/>
-      <c r="AB35" s="26">
+      <c r="AB35" s="25">
         <v>32.9</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE35" s="31"/>
+      <c r="AE35" s="30"/>
     </row>
     <row r="36" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>24</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3412,30 +3466,30 @@
       <c r="Y36" s="9">
         <v>0.80928154298587585</v>
       </c>
-      <c r="Z36" s="26">
+      <c r="Z36" s="25">
         <v>91.95</v>
       </c>
       <c r="AA36" s="8"/>
-      <c r="AB36" s="26">
+      <c r="AB36" s="25">
         <v>86.98</v>
       </c>
       <c r="AC36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE36" s="31"/>
+      <c r="AE36" s="30"/>
     </row>
     <row r="37" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>24</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3479,30 +3533,30 @@
       <c r="Y37" s="9">
         <v>0.62555029436930465</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="Z37" s="25">
         <v>73.900000000000006</v>
       </c>
       <c r="AA37" s="8"/>
-      <c r="AB37" s="26">
+      <c r="AB37" s="25">
         <v>19.100000000000001</v>
       </c>
       <c r="AC37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AE37" s="31"/>
+      <c r="AE37" s="30"/>
     </row>
     <row r="38" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>25</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3547,28 +3601,28 @@
       <c r="Y38" s="9">
         <v>0.20103828504333113</v>
       </c>
-      <c r="Z38" s="26">
+      <c r="Z38" s="25">
         <v>0</v>
       </c>
       <c r="AA38" s="8"/>
-      <c r="AB38" s="26">
+      <c r="AB38" s="25">
         <v>3.12</v>
       </c>
       <c r="AC38" s="8"/>
-      <c r="AE38" s="31"/>
+      <c r="AE38" s="30"/>
     </row>
     <row r="39" spans="1:31" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>25</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3616,351 +3670,583 @@
       <c r="Y39" s="9">
         <v>0.69538996200595371</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z39" s="25">
         <v>80.2</v>
       </c>
       <c r="AA39" s="8"/>
-      <c r="AB39" s="26">
+      <c r="AB39" s="25">
         <v>35.4</v>
       </c>
       <c r="AC39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AE39" s="31"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C40" s="14"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C41" s="14"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="S41" s="23"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
-      <c r="E42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="Q42" s="1"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
-      <c r="E43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
+      <c r="AE39" s="30"/>
+    </row>
+    <row r="40" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="30">
+        <v>26</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30">
+        <v>9</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="30">
+        <v>803</v>
+      </c>
+      <c r="Q40" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R40" s="30">
+        <v>1.022</v>
+      </c>
+      <c r="S40" s="30">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="T40" s="30">
+        <v>1.028</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" s="11">
+        <f>LN(R40)*SQRT(3)/3.1415926535</f>
+        <v>1.1997739226974728E-2</v>
+      </c>
+      <c r="X40" s="11">
+        <f t="shared" ref="X40:Y42" si="25">LN(S40)*SQRT(3)/3.1415926535</f>
+        <v>9.2938157324923623E-3</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" si="25"/>
+        <v>1.5225039537612669E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="30">
+        <v>26</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="30">
+        <v>15</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="30">
+        <v>2305</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R41" s="30">
+        <v>1.03</v>
+      </c>
+      <c r="S41" s="30">
+        <v>1.01</v>
+      </c>
+      <c r="T41" s="30">
+        <v>1.03</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="V41" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="11">
+        <f>LN(R41)*SQRT(3)/3.1415926535</f>
+        <v>1.6296621790287673E-2</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" si="25"/>
+        <v>5.48590491851534E-3</v>
+      </c>
+      <c r="Y41" s="11">
+        <f t="shared" si="25"/>
+        <v>1.6296621790287673E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="34">
+        <v>26</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="29"/>
+      <c r="M42" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="S42" s="11">
+        <v>2</v>
+      </c>
+      <c r="T42" s="11">
+        <v>2.52</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="9">
+        <f>LN(R42)*SQRT(3)/3.1415926535</f>
+        <v>0.44708926038348223</v>
+      </c>
+      <c r="X42" s="9">
+        <f t="shared" si="25"/>
+        <v>0.38215206943376678</v>
+      </c>
+      <c r="Y42" s="9">
+        <f t="shared" si="25"/>
+        <v>0.50957063927518198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="34">
+        <v>26</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R43" s="30">
+        <v>1.64</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V43" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" s="9">
+        <f t="shared" ref="W43:Y45" si="26">LN(R43)*SQRT(3)/3.1415926535</f>
+        <v>0.27274033258860808</v>
+      </c>
+      <c r="X43" s="9">
+        <f>LN(S43)*SQRT(3)/3.1415926535</f>
+        <v>0.17757393983556827</v>
+      </c>
+      <c r="Y43" s="9">
+        <f>LN(T43)*SQRT(3)/3.1415926535</f>
+        <v>0.36819363032288821</v>
+      </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
-      <c r="E44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="Q44" s="1"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
+      <c r="A44" s="30">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="8">
+        <v>10</v>
+      </c>
+      <c r="N44" s="8">
+        <v>542583</v>
+      </c>
+      <c r="O44" s="8">
+        <v>15904034</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="8">
+        <v>2.52</v>
+      </c>
+      <c r="S44" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="T44" s="8">
+        <v>3.57</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W44" s="8">
+        <f t="shared" si="26"/>
+        <v>0.50957063927518198</v>
+      </c>
+      <c r="X44" s="8">
+        <f t="shared" si="26"/>
+        <v>0.31790360923625061</v>
+      </c>
+      <c r="Y44" s="8">
+        <f t="shared" si="26"/>
+        <v>0.70160218429958188</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>98</v>
+      </c>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-      <c r="E45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="Q45" s="1"/>
-      <c r="S45" s="23"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="AA45" s="14"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
-      <c r="E46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="AA46" s="14"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
-      <c r="E47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="S47" s="23"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
-      <c r="E48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="Q48" s="1"/>
-      <c r="S48" s="23"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="AA48" s="14"/>
-    </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="30">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" s="30">
+        <v>4</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="30">
+        <v>1.88</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="T45" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="11">
+        <f t="shared" si="26"/>
+        <v>0.34803837144712108</v>
+      </c>
+      <c r="X45" s="11">
+        <f t="shared" si="26"/>
+        <v>0.24869102298067711</v>
+      </c>
+      <c r="Y45" s="30">
+        <f t="shared" si="26"/>
+        <v>0.44463344832546658</v>
+      </c>
+      <c r="Z45" s="30">
+        <v>91.4</v>
+      </c>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="Q49" s="1"/>
-      <c r="S49" s="23"/>
+      <c r="S49" s="22"/>
       <c r="U49" s="2"/>
       <c r="V49" s="14"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
       <c r="AA49" s="14"/>
     </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
       <c r="Q50" s="1"/>
-      <c r="S50" s="23"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="AA50" s="14"/>
-    </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
-      <c r="E51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="Q51" s="1"/>
-      <c r="S51" s="23"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-    </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
-      <c r="E52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="Q52" s="1"/>
-      <c r="S52" s="23"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-    </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
-      <c r="E53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="Q53" s="1"/>
-      <c r="S53" s="23"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="AA53" s="14"/>
-    </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
-      <c r="E54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="Q54" s="1"/>
-      <c r="S54" s="23"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="AA54" s="14"/>
-    </row>
-    <row r="55" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
-      <c r="E55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="Q55" s="1"/>
-      <c r="S55" s="23"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="AA55" s="14"/>
-    </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
-      <c r="E56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="Q56" s="1"/>
-      <c r="S56" s="23"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-    </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
-      <c r="E57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="Q57" s="1"/>
-      <c r="S57" s="23"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-    </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
-      <c r="E58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="Q58" s="1"/>
-      <c r="S58" s="23"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="AA58" s="14"/>
-    </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S50" s="22"/>
+      <c r="U50" s="11"/>
+      <c r="Y50" s="19"/>
+    </row>
+    <row r="51" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+    </row>
+    <row r="52" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="29"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="O55" s="2"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+    </row>
+    <row r="58" spans="3:27" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="O58" s="2"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
       <c r="Q59" s="1"/>
-      <c r="S59" s="23"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-    </row>
-    <row r="60" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S59" s="22"/>
+      <c r="U59" s="11"/>
+      <c r="Y59" s="19"/>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
       <c r="Q60" s="1"/>
-      <c r="S60" s="23"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-    </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S60" s="22"/>
+      <c r="U60" s="11"/>
+      <c r="Y60" s="19"/>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
       <c r="Q61" s="1"/>
-      <c r="S61" s="23"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-    </row>
-    <row r="62" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S61" s="22"/>
+      <c r="U61" s="11"/>
+      <c r="Y61" s="19"/>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
       <c r="Q62" s="1"/>
-      <c r="S62" s="23"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
-    </row>
-    <row r="63" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S62" s="22"/>
+      <c r="U62" s="11"/>
+      <c r="Y62" s="19"/>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="Q63" s="1"/>
-      <c r="S63" s="23"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-    </row>
-    <row r="64" spans="4:27" x14ac:dyDescent="0.35">
+      <c r="S63" s="22"/>
+      <c r="U63" s="11"/>
+      <c r="Y63" s="19"/>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="Q64" s="1"/>
-      <c r="S64" s="23"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
+      <c r="S64" s="22"/>
+      <c r="U64" s="11"/>
+      <c r="Y64" s="19"/>
     </row>
     <row r="65" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
@@ -3968,38 +4254,38 @@
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="Q65" s="1"/>
-      <c r="S65" s="23"/>
+      <c r="S65" s="22"/>
       <c r="U65" s="2"/>
       <c r="V65" s="14"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-    </row>
-    <row r="66" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+    </row>
+    <row r="66" spans="4:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="Q66" s="1"/>
-      <c r="S66" s="23"/>
+      <c r="S66" s="22"/>
       <c r="U66" s="2"/>
       <c r="V66" s="14"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-    </row>
-    <row r="67" spans="4:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+    </row>
+    <row r="67" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="Q67" s="1"/>
-      <c r="S67" s="23"/>
+      <c r="S67" s="22"/>
       <c r="U67" s="2"/>
       <c r="V67" s="14"/>
-      <c r="W67" s="20"/>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="20"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
     </row>
     <row r="68" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
@@ -4007,25 +4293,19 @@
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
       <c r="Q68" s="1"/>
-      <c r="S68" s="23"/>
+      <c r="S68" s="22"/>
       <c r="U68" s="2"/>
       <c r="V68" s="14"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="20"/>
-      <c r="Y68" s="20"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
     </row>
     <row r="69" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
-      <c r="E69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
       <c r="Q69" s="1"/>
-      <c r="S69" s="23"/>
       <c r="U69" s="2"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
+      <c r="V69" s="1"/>
+      <c r="Y69" s="11"/>
     </row>
     <row r="70" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
@@ -4072,14 +4352,15 @@
     <row r="76" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="1"/>
-      <c r="Y76" s="11"/>
-    </row>
-    <row r="77" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="D77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="U77" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="78" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="D78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
     </row>
     <row r="79" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
@@ -4177,7 +4458,7 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
     </row>
-    <row r="91" spans="4:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="U91" s="1"/>
@@ -4185,7 +4466,7 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
     </row>
-    <row r="92" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:24" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="U92" s="1"/>
@@ -4193,33 +4474,25 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
     </row>
-    <row r="93" spans="4:24" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="4:24" ht="46" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="4:24" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="4:24" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="4:21" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="4:21" ht="88" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="4:21" ht="73.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="4:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="4:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="4:21" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="4:21" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="4:21" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="4:21" ht="45" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="4:21" ht="49" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="4:21" ht="59.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="4:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="4:24" ht="46" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="4:24" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="4:24" ht="30.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="4:24" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" ht="88" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="73.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="36" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="45" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="49" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="59.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="58.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
